--- a/natmiOut/OldD2/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H2">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I2">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J2">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N2">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O2">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P2">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q2">
-        <v>73.78929923741165</v>
+        <v>85.26295425996668</v>
       </c>
       <c r="R2">
-        <v>73.78929923741165</v>
+        <v>511.5777255598001</v>
       </c>
       <c r="S2">
-        <v>0.002519322255877592</v>
+        <v>0.002585580191359638</v>
       </c>
       <c r="T2">
-        <v>0.002519322255877592</v>
+        <v>0.001728031792657554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H3">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I3">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J3">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N3">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O3">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P3">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q3">
-        <v>53.21453144801117</v>
+        <v>59.89416184269</v>
       </c>
       <c r="R3">
-        <v>53.21453144801117</v>
+        <v>359.36497105614</v>
       </c>
       <c r="S3">
-        <v>0.00181685630299496</v>
+        <v>0.001816277183715403</v>
       </c>
       <c r="T3">
-        <v>0.00181685630299496</v>
+        <v>0.001213880245612612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H4">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I4">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J4">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N4">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q4">
-        <v>12133.8620714427</v>
+        <v>0.08730980216666667</v>
       </c>
       <c r="R4">
-        <v>12133.8620714427</v>
+        <v>0.5238588129999999</v>
       </c>
       <c r="S4">
-        <v>0.414275634573798</v>
+        <v>2.647650400493528E-06</v>
       </c>
       <c r="T4">
-        <v>0.414275634573798</v>
+        <v>1.76951543919797E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H5">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I5">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J5">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>86.3148099493295</v>
+        <v>0.04088</v>
       </c>
       <c r="N5">
-        <v>86.3148099493295</v>
+        <v>0.08176</v>
       </c>
       <c r="O5">
-        <v>0.4189994204176315</v>
+        <v>0.0001908783741692303</v>
       </c>
       <c r="P5">
-        <v>0.4189994204176315</v>
+        <v>0.000127260346528834</v>
       </c>
       <c r="Q5">
-        <v>8750.561280018834</v>
+        <v>0.0277293128</v>
       </c>
       <c r="R5">
-        <v>8750.561280018834</v>
+        <v>0.1109172512</v>
       </c>
       <c r="S5">
-        <v>0.2987626120861024</v>
+        <v>8.408852650952383E-07</v>
       </c>
       <c r="T5">
-        <v>0.2987626120861024</v>
+        <v>3.746616141624395E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H6">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I6">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J6">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N6">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O6">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P6">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q6">
-        <v>1603.446837834437</v>
+        <v>13586.79231386561</v>
       </c>
       <c r="R6">
-        <v>1603.446837834437</v>
+        <v>122281.1308247905</v>
       </c>
       <c r="S6">
-        <v>0.05474505580647582</v>
+        <v>0.4120164657177812</v>
       </c>
       <c r="T6">
-        <v>0.05474505580647582</v>
+        <v>0.4130470721260036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H7">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I7">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J7">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N7">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O7">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P7">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q7">
-        <v>1156.355637727666</v>
+        <v>9544.233422741849</v>
       </c>
       <c r="R7">
-        <v>1156.355637727666</v>
+        <v>85898.10080467665</v>
       </c>
       <c r="S7">
-        <v>0.03948041957227053</v>
+        <v>0.2894267632847041</v>
       </c>
       <c r="T7">
-        <v>0.03948041957227053</v>
+        <v>0.2901507272564657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H8">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J8">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N8">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O8">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P8">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q8">
-        <v>3014.171168103965</v>
+        <v>13.91296090194444</v>
       </c>
       <c r="R8">
-        <v>3014.171168103965</v>
+        <v>125.2166481175</v>
       </c>
       <c r="S8">
-        <v>0.1029101588618806</v>
+        <v>0.000421907455863502</v>
       </c>
       <c r="T8">
-        <v>0.1029101588618806</v>
+        <v>0.0004229628033165029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H9">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J9">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>86.3148099493295</v>
+        <v>0.04088</v>
       </c>
       <c r="N9">
-        <v>86.3148099493295</v>
+        <v>0.08176</v>
       </c>
       <c r="O9">
-        <v>0.4189994204176315</v>
+        <v>0.0001908783741692303</v>
       </c>
       <c r="P9">
-        <v>0.4189994204176315</v>
+        <v>0.000127260346528834</v>
       </c>
       <c r="Q9">
-        <v>2173.725839280424</v>
+        <v>4.418711705333333</v>
       </c>
       <c r="R9">
-        <v>2173.725839280424</v>
+        <v>26.512270232</v>
       </c>
       <c r="S9">
-        <v>0.07421558331182578</v>
+        <v>0.0001339964531583578</v>
       </c>
       <c r="T9">
-        <v>0.07421558331182578</v>
+        <v>8.955441874700836E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H10">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I10">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J10">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N10">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O10">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P10">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q10">
-        <v>141.1441352136317</v>
+        <v>2210.208152695815</v>
       </c>
       <c r="R10">
-        <v>141.1441352136317</v>
+        <v>19891.87337426233</v>
       </c>
       <c r="S10">
-        <v>0.004818958369373064</v>
+        <v>0.06702407238867013</v>
       </c>
       <c r="T10">
-        <v>0.004818958369373064</v>
+        <v>0.06719172451972898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H11">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I11">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J11">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N11">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O11">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P11">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q11">
-        <v>101.7887295265173</v>
+        <v>1552.591813790241</v>
       </c>
       <c r="R11">
-        <v>101.7887295265173</v>
+        <v>13973.32632411217</v>
       </c>
       <c r="S11">
-        <v>0.003475281840915538</v>
+        <v>0.04708200265690334</v>
       </c>
       <c r="T11">
-        <v>0.003475281840915538</v>
+        <v>0.04719977225517803</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,861 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.423712312194253</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H12">
-        <v>0.423712312194253</v>
+        <v>52.749977</v>
       </c>
       <c r="I12">
-        <v>0.002980117018485899</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J12">
-        <v>0.002980117018485899</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P12">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q12">
-        <v>50.71302840829862</v>
+        <v>2.263267068727778</v>
       </c>
       <c r="R12">
-        <v>50.71302840829862</v>
+        <v>20.36940361855</v>
       </c>
       <c r="S12">
-        <v>0.001731449714963587</v>
+        <v>6.863307225805035E-05</v>
       </c>
       <c r="T12">
-        <v>0.001731449714963587</v>
+        <v>6.880474909616384E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.58332566666667</v>
+      </c>
+      <c r="H13">
+        <v>52.749977</v>
+      </c>
+      <c r="I13">
+        <v>0.114196505761187</v>
+      </c>
+      <c r="J13">
+        <v>0.1144748696355818</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.04088</v>
+      </c>
+      <c r="N13">
+        <v>0.08176</v>
+      </c>
+      <c r="O13">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P13">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q13">
+        <v>0.7188063532533333</v>
+      </c>
+      <c r="R13">
+        <v>4.31283811952</v>
+      </c>
+      <c r="S13">
+        <v>2.179764335550251E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.456811157866724E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="H13">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="I13">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="J13">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="N13">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="O13">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="P13">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="Q13">
-        <v>36.57264770023792</v>
-      </c>
-      <c r="R13">
-        <v>36.57264770023792</v>
-      </c>
-      <c r="S13">
-        <v>0.001248667303522312</v>
-      </c>
-      <c r="T13">
-        <v>0.001248667303522312</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H14">
+        <v>77.988344</v>
+      </c>
+      <c r="I14">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J14">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N14">
+        <v>377.09729</v>
+      </c>
+      <c r="O14">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P14">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q14">
+        <v>3267.688130443085</v>
+      </c>
+      <c r="R14">
+        <v>29409.19317398776</v>
+      </c>
+      <c r="S14">
+        <v>0.09909191834772758</v>
+      </c>
+      <c r="T14">
+        <v>0.09933978408744819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H15">
+        <v>77.988344</v>
+      </c>
+      <c r="I15">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J15">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>88.299099</v>
+      </c>
+      <c r="N15">
+        <v>264.897297</v>
+      </c>
+      <c r="O15">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P15">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q15">
+        <v>2295.433502567352</v>
+      </c>
+      <c r="R15">
+        <v>20658.90152310617</v>
+      </c>
+      <c r="S15">
+        <v>0.06960851223528479</v>
+      </c>
+      <c r="T15">
+        <v>0.06978262901154401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H16">
+        <v>77.988344</v>
+      </c>
+      <c r="I16">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J16">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.38615</v>
+      </c>
+      <c r="O16">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P16">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q16">
+        <v>3.346133226177778</v>
+      </c>
+      <c r="R16">
+        <v>30.1151990356</v>
+      </c>
+      <c r="S16">
+        <v>0.0001014707484903299</v>
+      </c>
+      <c r="T16">
+        <v>0.0001017245645689156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H17">
+        <v>77.988344</v>
+      </c>
+      <c r="I17">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J17">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.04088</v>
+      </c>
+      <c r="N17">
+        <v>0.08176</v>
+      </c>
+      <c r="O17">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P17">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q17">
+        <v>1.062721167573333</v>
+      </c>
+      <c r="R17">
+        <v>6.376327005439999</v>
+      </c>
+      <c r="S17">
+        <v>3.222678387894357E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.153826336696761E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.181792</v>
+      </c>
+      <c r="H18">
+        <v>3.545376</v>
+      </c>
+      <c r="I18">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J18">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N18">
+        <v>377.09729</v>
+      </c>
+      <c r="O18">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P18">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q18">
+        <v>148.5501868478933</v>
+      </c>
+      <c r="R18">
+        <v>1336.95168163104</v>
+      </c>
+      <c r="S18">
+        <v>0.00450475149342821</v>
+      </c>
+      <c r="T18">
+        <v>0.004516019552214376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.181792</v>
+      </c>
+      <c r="H19">
+        <v>3.545376</v>
+      </c>
+      <c r="I19">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J19">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>88.299099</v>
+      </c>
+      <c r="N19">
+        <v>264.897297</v>
+      </c>
+      <c r="O19">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P19">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q19">
+        <v>104.351168805408</v>
+      </c>
+      <c r="R19">
+        <v>939.1605192486719</v>
+      </c>
+      <c r="S19">
+        <v>0.003164426066986178</v>
+      </c>
+      <c r="T19">
+        <v>0.003172341473418539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.181792</v>
+      </c>
+      <c r="H20">
+        <v>3.545376</v>
+      </c>
+      <c r="I20">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J20">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.38615</v>
+      </c>
+      <c r="O20">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P20">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q20">
+        <v>0.1521163269333333</v>
+      </c>
+      <c r="R20">
+        <v>1.3690469424</v>
+      </c>
+      <c r="S20">
+        <v>4.612893901166204E-06</v>
+      </c>
+      <c r="T20">
+        <v>4.624432464331899E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.181792</v>
+      </c>
+      <c r="H21">
+        <v>3.545376</v>
+      </c>
+      <c r="I21">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J21">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.04088</v>
+      </c>
+      <c r="N21">
+        <v>0.08176</v>
+      </c>
+      <c r="O21">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P21">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q21">
+        <v>0.04831165696</v>
+      </c>
+      <c r="R21">
+        <v>0.28986994176</v>
+      </c>
+      <c r="S21">
+        <v>1.465040290143787E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.791366005018156E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.444929</v>
+      </c>
+      <c r="H22">
+        <v>0.889858</v>
+      </c>
+      <c r="I22">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J22">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N22">
+        <v>377.09729</v>
+      </c>
+      <c r="O22">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P22">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q22">
+        <v>55.92717338080334</v>
+      </c>
+      <c r="R22">
+        <v>335.56304028482</v>
+      </c>
+      <c r="S22">
+        <v>0.001695979137800493</v>
+      </c>
+      <c r="T22">
+        <v>0.001133480941568505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.444929</v>
+      </c>
+      <c r="H23">
+        <v>0.889858</v>
+      </c>
+      <c r="I23">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J23">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>88.299099</v>
+      </c>
+      <c r="N23">
+        <v>264.897297</v>
+      </c>
+      <c r="O23">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P23">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q23">
+        <v>39.286829818971</v>
+      </c>
+      <c r="R23">
+        <v>235.720978913826</v>
+      </c>
+      <c r="S23">
+        <v>0.001191364407237562</v>
+      </c>
+      <c r="T23">
+        <v>0.0007962296351228402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.444929</v>
+      </c>
+      <c r="H24">
+        <v>0.889858</v>
+      </c>
+      <c r="I24">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J24">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.38615</v>
+      </c>
+      <c r="O24">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P24">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q24">
+        <v>0.05726977778333334</v>
+      </c>
+      <c r="R24">
+        <v>0.3436186667</v>
+      </c>
+      <c r="S24">
+        <v>1.736693318749812E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.160691623073393E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.444929</v>
+      </c>
+      <c r="H25">
+        <v>0.889858</v>
+      </c>
+      <c r="I25">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J25">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.04088</v>
+      </c>
+      <c r="N25">
+        <v>0.08176</v>
+      </c>
+      <c r="O25">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P25">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q25">
+        <v>0.01818869752</v>
+      </c>
+      <c r="R25">
+        <v>0.07275479008000001</v>
+      </c>
+      <c r="S25">
+        <v>5.515682211873028E-07</v>
+      </c>
+      <c r="T25">
+        <v>2.457546215265587E-07</v>
       </c>
     </row>
   </sheetData>
